--- a/Football Analytics/xMetrics_Comp_070521.xlsx
+++ b/Football Analytics/xMetrics_Comp_070521.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bebad\Documents\GitHub\InnovationLab\Football Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C8E6D4-E81F-407B-ACBD-0B165AE78B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB00C1B-7748-4B77-9711-136674AAD016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{7F992C32-5576-4D6F-8BDD-0845303F2021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="241">
   <si>
     <t>Competition</t>
   </si>
@@ -166,6 +169,597 @@
   </si>
   <si>
     <t>Euro 2020</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Leeds United</t>
+  </si>
+  <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Manchester Utd</t>
+  </si>
+  <si>
+    <t>Newcastle Utd</t>
+  </si>
+  <si>
+    <t>Sheffield Utd</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>West Brom</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Premier League</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Paris S-G</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Ligue 1</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Saint-Etienne</t>
+  </si>
+  <si>
+    <t>Bundesliga</t>
+  </si>
+  <si>
+    <t>Arminia</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Bayern Munich</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Eint Frankfurt</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Hertha BSC</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>M'Gladbach</t>
+  </si>
+  <si>
+    <t>Mainz 05</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Schalke 04</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Koln</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Serie A</t>
+  </si>
+  <si>
+    <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
+    <t>Eibar</t>
+  </si>
+  <si>
+    <t>Elche</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>La Liga</t>
+  </si>
+  <si>
+    <t>Atlanta Utd</t>
+  </si>
+  <si>
+    <t>Austin FC</t>
+  </si>
+  <si>
+    <t>CF MontrÃ©al</t>
+  </si>
+  <si>
+    <t>Chicago Fire</t>
+  </si>
+  <si>
+    <t>Colorado Rapids</t>
+  </si>
+  <si>
+    <t>Columbus Crew</t>
+  </si>
+  <si>
+    <t>D.C. United</t>
+  </si>
+  <si>
+    <t>FC Cincinnati</t>
+  </si>
+  <si>
+    <t>FC Dallas</t>
+  </si>
+  <si>
+    <t>Houston Dynamo</t>
+  </si>
+  <si>
+    <t>Inter Miami</t>
+  </si>
+  <si>
+    <t>LA Galaxy</t>
+  </si>
+  <si>
+    <t>Los Angeles FC</t>
+  </si>
+  <si>
+    <t>Minnesota Utd</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>New England</t>
+  </si>
+  <si>
+    <t>NY Red Bulls</t>
+  </si>
+  <si>
+    <t>NYCFC</t>
+  </si>
+  <si>
+    <t>Orlando City</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Portland Timbers</t>
+  </si>
+  <si>
+    <t>Real Salt Lake</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Sporting KC</t>
+  </si>
+  <si>
+    <t>Toronto FC</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>MLS</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Korea Republic</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>World Cup</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>Basaksehir</t>
+  </si>
+  <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
+    <t>Dynamo Kyiv</t>
+  </si>
+  <si>
+    <t>Krasnodar</t>
+  </si>
+  <si>
+    <t>Loko Moscow</t>
+  </si>
+  <si>
+    <t>Midtjylland</t>
+  </si>
+  <si>
+    <t>Olympiacos</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>RB Salzburg</t>
+  </si>
+  <si>
+    <t>Shakhtar</t>
+  </si>
+  <si>
+    <t>Zenit</t>
+  </si>
+  <si>
+    <t>Ferencvaros</t>
+  </si>
+  <si>
+    <t>UEFA Champions League</t>
+  </si>
+  <si>
+    <t>AC Omonia</t>
+  </si>
+  <si>
+    <t>AEK Athens</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>Be'er Sheva</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Braga</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>CFR Cluj</t>
+  </si>
+  <si>
+    <t>CSKA Moscow</t>
+  </si>
+  <si>
+    <t>CSKA Sofia</t>
+  </si>
+  <si>
+    <t>Dinamo Zagreb</t>
+  </si>
+  <si>
+    <t>Dundalk</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
+    <t>LASK</t>
+  </si>
+  <si>
+    <t>Ludogorets</t>
+  </si>
+  <si>
+    <t>Maccabi Tel Aviv</t>
+  </si>
+  <si>
+    <t>Molde</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Rapid Wien</t>
+  </si>
+  <si>
+    <t>Red Star</t>
+  </si>
+  <si>
+    <t>Rijeka</t>
+  </si>
+  <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
+    <t>Slavia Prague</t>
+  </si>
+  <si>
+    <t>Slovan Liberec</t>
+  </si>
+  <si>
+    <t>Sparta Prague</t>
+  </si>
+  <si>
+    <t>Wolfsberger AC</t>
+  </si>
+  <si>
+    <t>Young Boys</t>
+  </si>
+  <si>
+    <t>Zorya Luhansk</t>
+  </si>
+  <si>
+    <t>Lech Poznan</t>
+  </si>
+  <si>
+    <t>Qarabag Agdam</t>
+  </si>
+  <si>
+    <t>Standard Liege</t>
+  </si>
+  <si>
+    <t>UEFA Europa League</t>
   </si>
 </sst>
 </file>
@@ -655,13 +1249,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1022,16 +1632,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E50C12-0386-49E4-9349-CA5AF6787F68}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
@@ -1949,7 +2559,6378 @@
         <v>1.78</v>
       </c>
     </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>2021</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36">
+        <v>1.41</v>
+      </c>
+      <c r="E36">
+        <v>0.96</v>
+      </c>
+      <c r="F36">
+        <v>2.37</v>
+      </c>
+      <c r="G36">
+        <v>1.29</v>
+      </c>
+      <c r="H36">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>1.39</v>
+      </c>
+      <c r="E37">
+        <v>0.98</v>
+      </c>
+      <c r="F37">
+        <v>2.37</v>
+      </c>
+      <c r="G37">
+        <v>1.28</v>
+      </c>
+      <c r="H37">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38">
+        <v>1.36</v>
+      </c>
+      <c r="E38">
+        <v>0.87</v>
+      </c>
+      <c r="F38">
+        <v>2.23</v>
+      </c>
+      <c r="G38">
+        <v>1.18</v>
+      </c>
+      <c r="H38">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>1.05</v>
+      </c>
+      <c r="E39">
+        <v>0.71</v>
+      </c>
+      <c r="F39">
+        <v>1.76</v>
+      </c>
+      <c r="G39">
+        <v>0.99</v>
+      </c>
+      <c r="H39">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40">
+        <v>1.68</v>
+      </c>
+      <c r="E40">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F40">
+        <v>2.8</v>
+      </c>
+      <c r="G40">
+        <v>1.48</v>
+      </c>
+      <c r="H40">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41">
+        <v>0.85</v>
+      </c>
+      <c r="E41">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F41">
+        <v>1.4</v>
+      </c>
+      <c r="G41">
+        <v>0.78</v>
+      </c>
+      <c r="H41">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>1.24</v>
+      </c>
+      <c r="E42">
+        <v>0.87</v>
+      </c>
+      <c r="F42">
+        <v>2.11</v>
+      </c>
+      <c r="G42">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H42">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E43">
+        <v>0.73</v>
+      </c>
+      <c r="F43">
+        <v>1.82</v>
+      </c>
+      <c r="G43">
+        <v>0.97</v>
+      </c>
+      <c r="H43">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44">
+        <v>1.51</v>
+      </c>
+      <c r="E44">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F44">
+        <v>2.63</v>
+      </c>
+      <c r="G44">
+        <v>1.43</v>
+      </c>
+      <c r="H44">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45">
+        <v>1.47</v>
+      </c>
+      <c r="E45">
+        <v>0.87</v>
+      </c>
+      <c r="F45">
+        <v>2.35</v>
+      </c>
+      <c r="G45">
+        <v>1.23</v>
+      </c>
+      <c r="H45">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46">
+        <v>1.91</v>
+      </c>
+      <c r="E46">
+        <v>1.32</v>
+      </c>
+      <c r="F46">
+        <v>3.23</v>
+      </c>
+      <c r="G46">
+        <v>1.79</v>
+      </c>
+      <c r="H46">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47">
+        <v>1.93</v>
+      </c>
+      <c r="E47">
+        <v>1.34</v>
+      </c>
+      <c r="F47">
+        <v>3.27</v>
+      </c>
+      <c r="G47">
+        <v>1.75</v>
+      </c>
+      <c r="H47">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <v>1.58</v>
+      </c>
+      <c r="E48">
+        <v>1.07</v>
+      </c>
+      <c r="F48">
+        <v>2.65</v>
+      </c>
+      <c r="G48">
+        <v>1.37</v>
+      </c>
+      <c r="H48">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49">
+        <v>1.08</v>
+      </c>
+      <c r="E49">
+        <v>0.69</v>
+      </c>
+      <c r="F49">
+        <v>1.77</v>
+      </c>
+      <c r="G49">
+        <v>0.93</v>
+      </c>
+      <c r="H49">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50">
+        <v>0.83</v>
+      </c>
+      <c r="E50">
+        <v>0.6</v>
+      </c>
+      <c r="F50">
+        <v>1.42</v>
+      </c>
+      <c r="G50">
+        <v>0.75</v>
+      </c>
+      <c r="H50">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E51">
+        <v>0.72</v>
+      </c>
+      <c r="F51">
+        <v>1.84</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <v>1.43</v>
+      </c>
+      <c r="E52">
+        <v>0.93</v>
+      </c>
+      <c r="F52">
+        <v>2.37</v>
+      </c>
+      <c r="G52">
+        <v>1.33</v>
+      </c>
+      <c r="H52">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53">
+        <v>0.89</v>
+      </c>
+      <c r="E53">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F53">
+        <v>1.45</v>
+      </c>
+      <c r="G53">
+        <v>0.81</v>
+      </c>
+      <c r="H53">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54">
+        <v>1.42</v>
+      </c>
+      <c r="E54">
+        <v>0.97</v>
+      </c>
+      <c r="F54">
+        <v>2.39</v>
+      </c>
+      <c r="G54">
+        <v>1.33</v>
+      </c>
+      <c r="H54">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55">
+        <v>1.05</v>
+      </c>
+      <c r="E55">
+        <v>0.7</v>
+      </c>
+      <c r="F55">
+        <v>1.74</v>
+      </c>
+      <c r="G55">
+        <v>0.97</v>
+      </c>
+      <c r="H55">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56">
+        <v>2021</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1.82</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="H57" s="4">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="G58" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="H58" s="4">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1.36</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="H59" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2.39</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="H60" s="4">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2.27</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="H61" s="4">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2.11</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="F63" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="G63" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H63" s="4">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2.16</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H64" s="4">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="H65" s="4">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="H66" s="4">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H67" s="4">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="G68" s="4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H69" s="4">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="H70" s="4">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="F71" s="4">
+        <v>3.61</v>
+      </c>
+      <c r="G71" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="H71" s="4">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1.43</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1.31</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="H73" s="4">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H74" s="4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="F75" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="G75" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H75" s="4">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76">
+        <v>2021</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="H76" s="4">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77">
+        <v>2021</v>
+      </c>
+      <c r="C77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="H77" s="4">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C78" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="F78" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G78" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H78" s="4">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F79" s="4">
+        <v>3.52</v>
+      </c>
+      <c r="G79" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="H79" s="4">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="F80" s="4">
+        <v>2.92</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="H80" s="4">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C81" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1.36</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="H81" s="4">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="F82" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H82" s="4">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C83" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2.58</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="H83" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="H84" s="4">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C85" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="F85" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="G85" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="H85" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="F86" s="4">
+        <v>2.64</v>
+      </c>
+      <c r="G86" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="H86" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="F87" s="4">
+        <v>2.41</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1.28</v>
+      </c>
+      <c r="H87" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C88" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="F88" s="4">
+        <v>3.24</v>
+      </c>
+      <c r="G88" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="H88" s="4">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C89" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="G89" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="H89" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1.56</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F90" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="H90" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C91" t="s">
+        <v>101</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="F91" s="4">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="H91" s="4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C92" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="G92" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="H92" s="4">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C93" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F93" s="4">
+        <v>2.56</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="H93" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C94" t="s">
+        <v>105</v>
+      </c>
+      <c r="D94">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E94">
+        <v>1.47</v>
+      </c>
+      <c r="F94">
+        <v>3.5</v>
+      </c>
+      <c r="G94">
+        <v>1.89</v>
+      </c>
+      <c r="H94">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E95">
+        <v>0.72</v>
+      </c>
+      <c r="F95">
+        <v>1.81</v>
+      </c>
+      <c r="G95">
+        <v>0.95</v>
+      </c>
+      <c r="H95">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C96" t="s">
+        <v>107</v>
+      </c>
+      <c r="D96">
+        <v>1.41</v>
+      </c>
+      <c r="E96">
+        <v>0.98</v>
+      </c>
+      <c r="F96">
+        <v>2.39</v>
+      </c>
+      <c r="G96">
+        <v>1.33</v>
+      </c>
+      <c r="H96">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C97" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97">
+        <v>1.2</v>
+      </c>
+      <c r="E97">
+        <v>0.81</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H97">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C98" t="s">
+        <v>109</v>
+      </c>
+      <c r="D98">
+        <v>1.01</v>
+      </c>
+      <c r="E98">
+        <v>0.64</v>
+      </c>
+      <c r="F98">
+        <v>1.66</v>
+      </c>
+      <c r="G98">
+        <v>0.84</v>
+      </c>
+      <c r="H98">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C99" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99">
+        <v>1.19</v>
+      </c>
+      <c r="E99">
+        <v>0.8</v>
+      </c>
+      <c r="F99">
+        <v>1.99</v>
+      </c>
+      <c r="G99">
+        <v>1.07</v>
+      </c>
+      <c r="H99">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C100" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100">
+        <v>0.99</v>
+      </c>
+      <c r="E100">
+        <v>0.66</v>
+      </c>
+      <c r="F100">
+        <v>1.66</v>
+      </c>
+      <c r="G100">
+        <v>0.92</v>
+      </c>
+      <c r="H100">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C101" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E101">
+        <v>0.82</v>
+      </c>
+      <c r="F101">
+        <v>1.97</v>
+      </c>
+      <c r="G101">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H101">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C102" t="s">
+        <v>113</v>
+      </c>
+      <c r="D102">
+        <v>1.97</v>
+      </c>
+      <c r="E102">
+        <v>1.4</v>
+      </c>
+      <c r="F102">
+        <v>3.37</v>
+      </c>
+      <c r="G102">
+        <v>1.79</v>
+      </c>
+      <c r="H102">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C103" t="s">
+        <v>114</v>
+      </c>
+      <c r="D103">
+        <v>1.95</v>
+      </c>
+      <c r="E103">
+        <v>1.35</v>
+      </c>
+      <c r="F103">
+        <v>3.3</v>
+      </c>
+      <c r="G103">
+        <v>1.76</v>
+      </c>
+      <c r="H103">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C104" t="s">
+        <v>115</v>
+      </c>
+      <c r="D104">
+        <v>1.57</v>
+      </c>
+      <c r="E104">
+        <v>1.06</v>
+      </c>
+      <c r="F104">
+        <v>2.63</v>
+      </c>
+      <c r="G104">
+        <v>1.38</v>
+      </c>
+      <c r="H104">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C105" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105">
+        <v>1.87</v>
+      </c>
+      <c r="E105">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F105">
+        <v>3.02</v>
+      </c>
+      <c r="G105">
+        <v>1.49</v>
+      </c>
+      <c r="H105">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C106" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106">
+        <v>1.78</v>
+      </c>
+      <c r="E106">
+        <v>1.2</v>
+      </c>
+      <c r="F106">
+        <v>2.98</v>
+      </c>
+      <c r="G106">
+        <v>1.62</v>
+      </c>
+      <c r="H106">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C107" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107">
+        <v>1.05</v>
+      </c>
+      <c r="E107">
+        <v>0.75</v>
+      </c>
+      <c r="F107">
+        <v>1.81</v>
+      </c>
+      <c r="G107">
+        <v>0.95</v>
+      </c>
+      <c r="H107">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C108" t="s">
+        <v>119</v>
+      </c>
+      <c r="D108">
+        <v>1.81</v>
+      </c>
+      <c r="E108">
+        <v>1.3</v>
+      </c>
+      <c r="F108">
+        <v>3.11</v>
+      </c>
+      <c r="G108">
+        <v>1.66</v>
+      </c>
+      <c r="H108">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C109" t="s">
+        <v>120</v>
+      </c>
+      <c r="D109">
+        <v>1.21</v>
+      </c>
+      <c r="E109">
+        <v>0.79</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H109">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B110" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C110" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110">
+        <v>1.56</v>
+      </c>
+      <c r="E110">
+        <v>0.94</v>
+      </c>
+      <c r="F110">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G110">
+        <v>1.29</v>
+      </c>
+      <c r="H110">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C111" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111">
+        <v>1.23</v>
+      </c>
+      <c r="E111">
+        <v>0.76</v>
+      </c>
+      <c r="F111">
+        <v>1.99</v>
+      </c>
+      <c r="G111">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H111">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C112" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112">
+        <v>1.32</v>
+      </c>
+      <c r="E112">
+        <v>0.86</v>
+      </c>
+      <c r="F112">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G112">
+        <v>1.2</v>
+      </c>
+      <c r="H112">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C113" t="s">
+        <v>124</v>
+      </c>
+      <c r="D113">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E113">
+        <v>0.72</v>
+      </c>
+      <c r="F113">
+        <v>1.85</v>
+      </c>
+      <c r="G113">
+        <v>1.05</v>
+      </c>
+      <c r="H113">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>146</v>
+      </c>
+      <c r="B114" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C114" t="s">
+        <v>143</v>
+      </c>
+      <c r="D114" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E114" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="F114" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="G114" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="H114" s="5">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B115" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C115" t="s">
+        <v>126</v>
+      </c>
+      <c r="D115" s="5">
+        <v>1.17</v>
+      </c>
+      <c r="E115" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="F115" s="5">
+        <v>1.99</v>
+      </c>
+      <c r="G115" s="5">
+        <v>1.07</v>
+      </c>
+      <c r="H115" s="5">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B116" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C116" t="s">
+        <v>144</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1.38</v>
+      </c>
+      <c r="E116" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="F116" s="5">
+        <v>2.37</v>
+      </c>
+      <c r="G116" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="H116" s="5">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B117" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C117" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117" s="5">
+        <v>2.08</v>
+      </c>
+      <c r="E117" s="5">
+        <v>1.51</v>
+      </c>
+      <c r="F117" s="5">
+        <v>3.59</v>
+      </c>
+      <c r="G117" s="5">
+        <v>1.91</v>
+      </c>
+      <c r="H117" s="5">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B118" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C118" t="s">
+        <v>128</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="E118" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="F118" s="5">
+        <v>2</v>
+      </c>
+      <c r="G118" s="5">
+        <v>1</v>
+      </c>
+      <c r="H118" s="5">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B119" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C119" t="s">
+        <v>145</v>
+      </c>
+      <c r="D119" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E119" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F119" s="5">
+        <v>1.39</v>
+      </c>
+      <c r="G119" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="H119" s="5">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C120" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="E120" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="F120" s="5">
+        <v>2.13</v>
+      </c>
+      <c r="G120" s="5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H120" s="5">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C121" t="s">
+        <v>130</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E121" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="F121" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="G121" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="H121" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C122" t="s">
+        <v>131</v>
+      </c>
+      <c r="D122" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E122" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F122" s="5">
+        <v>1.38</v>
+      </c>
+      <c r="G122" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="H122" s="5">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C123" t="s">
+        <v>132</v>
+      </c>
+      <c r="D123" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="E123" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="F123" s="5">
+        <v>1.39</v>
+      </c>
+      <c r="G123" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="H123" s="5">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D124" s="5">
+        <v>1.04</v>
+      </c>
+      <c r="E124" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="F124" s="5">
+        <v>1.66</v>
+      </c>
+      <c r="G124" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="H124" s="5">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C125" t="s">
+        <v>134</v>
+      </c>
+      <c r="D125" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="F125" s="5">
+        <v>1.55</v>
+      </c>
+      <c r="G125" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="H125" s="5">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C126" t="s">
+        <v>135</v>
+      </c>
+      <c r="D126" s="5">
+        <v>1.08</v>
+      </c>
+      <c r="E126" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F126" s="5">
+        <v>1.83</v>
+      </c>
+      <c r="G126" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="H126" s="5">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B127" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C127" t="s">
+        <v>136</v>
+      </c>
+      <c r="D127" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="F127" s="5">
+        <v>1.61</v>
+      </c>
+      <c r="G127" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="H127" s="5">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C128" t="s">
+        <v>137</v>
+      </c>
+      <c r="D128" s="5">
+        <v>1.62</v>
+      </c>
+      <c r="E128" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="F128" s="5">
+        <v>2.84</v>
+      </c>
+      <c r="G128" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="H128" s="5">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C129" t="s">
+        <v>138</v>
+      </c>
+      <c r="D129" s="5">
+        <v>1.59</v>
+      </c>
+      <c r="E129" s="5">
+        <v>1.03</v>
+      </c>
+      <c r="F129" s="5">
+        <v>2.62</v>
+      </c>
+      <c r="G129" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="H129" s="5">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B130" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C130" t="s">
+        <v>139</v>
+      </c>
+      <c r="D130" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="E130" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="F130" s="5">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G130" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="H130" s="5">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C131" t="s">
+        <v>140</v>
+      </c>
+      <c r="D131" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E131" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="F131" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="G131" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="H131" s="5">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B132" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C132" t="s">
+        <v>141</v>
+      </c>
+      <c r="D132" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="E132" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F132" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="G132" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="H132" s="5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C133" t="s">
+        <v>142</v>
+      </c>
+      <c r="D133" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="E133" s="5">
+        <v>1.07</v>
+      </c>
+      <c r="F133" s="5">
+        <v>2.59</v>
+      </c>
+      <c r="G133" s="5">
+        <v>1.27</v>
+      </c>
+      <c r="H133" s="5">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>174</v>
+      </c>
+      <c r="B134">
+        <v>2021</v>
+      </c>
+      <c r="C134" t="s">
+        <v>147</v>
+      </c>
+      <c r="D134" s="9">
+        <v>1.06</v>
+      </c>
+      <c r="E134" s="9">
+        <v>0.74</v>
+      </c>
+      <c r="F134" s="9">
+        <v>1.79</v>
+      </c>
+      <c r="G134" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="H134" s="9">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B135" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C135" t="s">
+        <v>148</v>
+      </c>
+      <c r="D135" s="9">
+        <v>1.27</v>
+      </c>
+      <c r="E135" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="F135" s="9">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G135" s="9">
+        <v>1.27</v>
+      </c>
+      <c r="H135" s="9">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B136" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C136" t="s">
+        <v>149</v>
+      </c>
+      <c r="D136" s="9">
+        <v>1.23</v>
+      </c>
+      <c r="E136" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="F136" s="9">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G136" s="9">
+        <v>1.23</v>
+      </c>
+      <c r="H136" s="9">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B137" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C137" t="s">
+        <v>150</v>
+      </c>
+      <c r="D137" s="9">
+        <v>1.39</v>
+      </c>
+      <c r="E137" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F137" s="9">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G137" s="9">
+        <v>1.39</v>
+      </c>
+      <c r="H137" s="9">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B138" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C138" t="s">
+        <v>151</v>
+      </c>
+      <c r="D138" s="9">
+        <v>1.37</v>
+      </c>
+      <c r="E138" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="F138" s="9">
+        <v>2.33</v>
+      </c>
+      <c r="G138" s="9">
+        <v>1.29</v>
+      </c>
+      <c r="H138" s="9">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B139" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C139" t="s">
+        <v>152</v>
+      </c>
+      <c r="D139" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E139" s="9">
+        <v>0.66</v>
+      </c>
+      <c r="F139" s="9">
+        <v>1.56</v>
+      </c>
+      <c r="G139" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H139" s="9">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B140" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C140" t="s">
+        <v>153</v>
+      </c>
+      <c r="D140" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="E140" s="9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F140" s="9">
+        <v>2.69</v>
+      </c>
+      <c r="G140" s="9">
+        <v>1.49</v>
+      </c>
+      <c r="H140" s="9">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B141" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C141" t="s">
+        <v>154</v>
+      </c>
+      <c r="D141" s="9">
+        <v>1.38</v>
+      </c>
+      <c r="E141" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="F141" s="9">
+        <v>2.36</v>
+      </c>
+      <c r="G141" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H141" s="9">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B142" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C142" t="s">
+        <v>155</v>
+      </c>
+      <c r="D142" s="9">
+        <v>1.39</v>
+      </c>
+      <c r="E142" s="9">
+        <v>1.02</v>
+      </c>
+      <c r="F142" s="9">
+        <v>2.42</v>
+      </c>
+      <c r="G142" s="9">
+        <v>1.32</v>
+      </c>
+      <c r="H142" s="9">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B143" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C143" t="s">
+        <v>156</v>
+      </c>
+      <c r="D143" s="9">
+        <v>1.07</v>
+      </c>
+      <c r="E143" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="F143" s="9">
+        <v>1.85</v>
+      </c>
+      <c r="G143" s="9">
+        <v>1.01</v>
+      </c>
+      <c r="H143" s="9">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B144" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C144" t="s">
+        <v>157</v>
+      </c>
+      <c r="D144" s="9">
+        <v>1.04</v>
+      </c>
+      <c r="E144" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="F144" s="9">
+        <v>1.81</v>
+      </c>
+      <c r="G144" s="9">
+        <v>0.97</v>
+      </c>
+      <c r="H144" s="9">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B145" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C145" t="s">
+        <v>158</v>
+      </c>
+      <c r="D145" s="9">
+        <v>1.54</v>
+      </c>
+      <c r="E145" s="9">
+        <v>0.94</v>
+      </c>
+      <c r="F145" s="9">
+        <v>2.48</v>
+      </c>
+      <c r="G145" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="H145" s="9">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B146" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C146" t="s">
+        <v>159</v>
+      </c>
+      <c r="D146" s="9">
+        <v>1.48</v>
+      </c>
+      <c r="E146" s="9">
+        <v>1.17</v>
+      </c>
+      <c r="F146" s="9">
+        <v>2.65</v>
+      </c>
+      <c r="G146" s="9">
+        <v>1.48</v>
+      </c>
+      <c r="H146" s="9">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B147" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C147" t="s">
+        <v>160</v>
+      </c>
+      <c r="D147" s="9">
+        <v>1.67</v>
+      </c>
+      <c r="E147" s="9">
+        <v>1.23</v>
+      </c>
+      <c r="F147" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="G147" s="9">
+        <v>1.59</v>
+      </c>
+      <c r="H147" s="9">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B148" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C148" t="s">
+        <v>161</v>
+      </c>
+      <c r="D148" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="E148" s="9">
+        <v>1.26</v>
+      </c>
+      <c r="F148" s="9">
+        <v>3</v>
+      </c>
+      <c r="G148" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="H148" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B149" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C149" t="s">
+        <v>162</v>
+      </c>
+      <c r="D149" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="E149" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="F149" s="9">
+        <v>3.06</v>
+      </c>
+      <c r="G149" s="9">
+        <v>1.59</v>
+      </c>
+      <c r="H149" s="9">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B150" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C150" t="s">
+        <v>163</v>
+      </c>
+      <c r="D150" s="9">
+        <v>1.24</v>
+      </c>
+      <c r="E150" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="F150" s="9">
+        <v>2.19</v>
+      </c>
+      <c r="G150" s="9">
+        <v>1.24</v>
+      </c>
+      <c r="H150" s="9">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B151" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D151" s="9">
+        <v>1.86</v>
+      </c>
+      <c r="E151" s="9">
+        <v>1.19</v>
+      </c>
+      <c r="F151" s="9">
+        <v>3.05</v>
+      </c>
+      <c r="G151" s="9">
+        <v>1.71</v>
+      </c>
+      <c r="H151" s="9">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B152" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C152" t="s">
+        <v>165</v>
+      </c>
+      <c r="D152" s="9">
+        <v>1.48</v>
+      </c>
+      <c r="E152" s="9">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F152" s="9">
+        <v>2.59</v>
+      </c>
+      <c r="G152" s="9">
+        <v>1.34</v>
+      </c>
+      <c r="H152" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B153" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C153" t="s">
+        <v>166</v>
+      </c>
+      <c r="D153" s="9">
+        <v>1.33</v>
+      </c>
+      <c r="E153" s="9">
+        <v>0.91</v>
+      </c>
+      <c r="F153" s="9">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G153" s="9">
+        <v>1.33</v>
+      </c>
+      <c r="H153" s="9">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B154" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C154" t="s">
+        <v>167</v>
+      </c>
+      <c r="D154" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E154" s="9">
+        <v>1.06</v>
+      </c>
+      <c r="F154" s="9">
+        <v>2.66</v>
+      </c>
+      <c r="G154" s="9">
+        <v>1.46</v>
+      </c>
+      <c r="H154" s="9">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B155" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C155" t="s">
+        <v>168</v>
+      </c>
+      <c r="D155" s="9">
+        <v>1.21</v>
+      </c>
+      <c r="E155" s="9">
+        <v>1.06</v>
+      </c>
+      <c r="F155" s="9">
+        <v>2.27</v>
+      </c>
+      <c r="G155" s="9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H155" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B156" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C156" t="s">
+        <v>169</v>
+      </c>
+      <c r="D156" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="E156" s="9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F156" s="9">
+        <v>2.79</v>
+      </c>
+      <c r="G156" s="9">
+        <v>1.46</v>
+      </c>
+      <c r="H156" s="9">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B157" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C157" t="s">
+        <v>170</v>
+      </c>
+      <c r="D157" s="9">
+        <v>1.57</v>
+      </c>
+      <c r="E157" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="F157" s="9">
+        <v>2.62</v>
+      </c>
+      <c r="G157" s="9">
+        <v>1.38</v>
+      </c>
+      <c r="H157" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B158" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C158" t="s">
+        <v>171</v>
+      </c>
+      <c r="D158" s="9">
+        <v>1.96</v>
+      </c>
+      <c r="E158" s="9">
+        <v>1.32</v>
+      </c>
+      <c r="F158" s="9">
+        <v>3.27</v>
+      </c>
+      <c r="G158" s="9">
+        <v>1.79</v>
+      </c>
+      <c r="H158" s="9">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B159" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C159" t="s">
+        <v>172</v>
+      </c>
+      <c r="D159" s="9">
+        <v>1.23</v>
+      </c>
+      <c r="E159" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="F159" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="G159" s="9">
+        <v>1.17</v>
+      </c>
+      <c r="H159" s="9">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C160" t="s">
+        <v>173</v>
+      </c>
+      <c r="D160" s="9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E160" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F160" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="G160" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="H160" s="9">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>190</v>
+      </c>
+      <c r="B161">
+        <v>2018</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>1.23</v>
+      </c>
+      <c r="E161">
+        <v>0.75</v>
+      </c>
+      <c r="F161">
+        <v>1.97</v>
+      </c>
+      <c r="G161">
+        <v>1.04</v>
+      </c>
+      <c r="H161">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A162" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B162" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C162" t="s">
+        <v>175</v>
+      </c>
+      <c r="D162">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E162">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F162">
+        <v>1.71</v>
+      </c>
+      <c r="G162">
+        <v>0.66</v>
+      </c>
+      <c r="H162">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B163" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C163" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163">
+        <v>1.69</v>
+      </c>
+      <c r="E163">
+        <v>1.3</v>
+      </c>
+      <c r="F163">
+        <v>2.99</v>
+      </c>
+      <c r="G163">
+        <v>1.58</v>
+      </c>
+      <c r="H163">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A164" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B164" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164">
+        <v>2.37</v>
+      </c>
+      <c r="E164">
+        <v>1.81</v>
+      </c>
+      <c r="F164">
+        <v>4.18</v>
+      </c>
+      <c r="G164">
+        <v>2.37</v>
+      </c>
+      <c r="H164">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B165" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165">
+        <v>1.07</v>
+      </c>
+      <c r="E165">
+        <v>0.53</v>
+      </c>
+      <c r="F165">
+        <v>1.6</v>
+      </c>
+      <c r="G165">
+        <v>0.63</v>
+      </c>
+      <c r="H165">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A166" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B166" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C166" t="s">
+        <v>176</v>
+      </c>
+      <c r="D166">
+        <v>0.7</v>
+      </c>
+      <c r="E166">
+        <v>0.38</v>
+      </c>
+      <c r="F166">
+        <v>1.07</v>
+      </c>
+      <c r="G166">
+        <v>0.44</v>
+      </c>
+      <c r="H166">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A167" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B167" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C167" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167">
+        <v>1.92</v>
+      </c>
+      <c r="E167">
+        <v>0.72</v>
+      </c>
+      <c r="F167">
+        <v>2.65</v>
+      </c>
+      <c r="G167">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H167">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A168" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B168" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C168" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168">
+        <v>1.22</v>
+      </c>
+      <c r="E168">
+        <v>0.52</v>
+      </c>
+      <c r="F168">
+        <v>1.75</v>
+      </c>
+      <c r="G168">
+        <v>0.65</v>
+      </c>
+      <c r="H168">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A169" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B169" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C169" t="s">
+        <v>177</v>
+      </c>
+      <c r="D169">
+        <v>0.88</v>
+      </c>
+      <c r="E169">
+        <v>0.5</v>
+      </c>
+      <c r="F169">
+        <v>1.38</v>
+      </c>
+      <c r="G169">
+        <v>0.63</v>
+      </c>
+      <c r="H169">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A170" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B170" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170">
+        <v>1.63</v>
+      </c>
+      <c r="E170">
+        <v>0.7</v>
+      </c>
+      <c r="F170">
+        <v>2.33</v>
+      </c>
+      <c r="G170">
+        <v>1.01</v>
+      </c>
+      <c r="H170">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A171" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B171" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C171" t="s">
+        <v>26</v>
+      </c>
+      <c r="D171">
+        <v>1.17</v>
+      </c>
+      <c r="E171">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F171">
+        <v>1.71</v>
+      </c>
+      <c r="G171">
+        <v>0.84</v>
+      </c>
+      <c r="H171">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A172" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B172" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C172" t="s">
+        <v>27</v>
+      </c>
+      <c r="D172">
+        <v>1.98</v>
+      </c>
+      <c r="E172">
+        <v>1.54</v>
+      </c>
+      <c r="F172">
+        <v>3.52</v>
+      </c>
+      <c r="G172">
+        <v>1.98</v>
+      </c>
+      <c r="H172">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A173" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B173" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C173" t="s">
+        <v>178</v>
+      </c>
+      <c r="D173">
+        <v>1.37</v>
+      </c>
+      <c r="E173">
+        <v>0.6</v>
+      </c>
+      <c r="F173">
+        <v>1.97</v>
+      </c>
+      <c r="G173">
+        <v>0.86</v>
+      </c>
+      <c r="H173">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A174" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B174" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C174" t="s">
+        <v>179</v>
+      </c>
+      <c r="D174">
+        <v>0.74</v>
+      </c>
+      <c r="E174">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F174">
+        <v>1.04</v>
+      </c>
+      <c r="G174">
+        <v>0.5</v>
+      </c>
+      <c r="H174">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A175" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B175" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C175" t="s">
+        <v>180</v>
+      </c>
+      <c r="D175">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E175">
+        <v>0.79</v>
+      </c>
+      <c r="F175">
+        <v>1.91</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A176" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B176" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C176" t="s">
+        <v>181</v>
+      </c>
+      <c r="D176">
+        <v>0.97</v>
+      </c>
+      <c r="E176">
+        <v>0.66</v>
+      </c>
+      <c r="F176">
+        <v>1.63</v>
+      </c>
+      <c r="G176">
+        <v>0.97</v>
+      </c>
+      <c r="H176">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A177" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B177" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C177" t="s">
+        <v>182</v>
+      </c>
+      <c r="D177">
+        <v>1.18</v>
+      </c>
+      <c r="E177">
+        <v>0.7</v>
+      </c>
+      <c r="F177">
+        <v>1.88</v>
+      </c>
+      <c r="G177">
+        <v>0.99</v>
+      </c>
+      <c r="H177">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A178" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B178" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C178" t="s">
+        <v>183</v>
+      </c>
+      <c r="D178">
+        <v>1.02</v>
+      </c>
+      <c r="E178">
+        <v>0.53</v>
+      </c>
+      <c r="F178">
+        <v>1.55</v>
+      </c>
+      <c r="G178">
+        <v>1.02</v>
+      </c>
+      <c r="H178">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B179" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C179" t="s">
+        <v>184</v>
+      </c>
+      <c r="D179">
+        <v>1.02</v>
+      </c>
+      <c r="E179">
+        <v>0.64</v>
+      </c>
+      <c r="F179">
+        <v>1.66</v>
+      </c>
+      <c r="G179">
+        <v>0.77</v>
+      </c>
+      <c r="H179">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B180" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C180" t="s">
+        <v>185</v>
+      </c>
+      <c r="D180">
+        <v>0.76</v>
+      </c>
+      <c r="E180">
+        <v>0.61</v>
+      </c>
+      <c r="F180">
+        <v>1.37</v>
+      </c>
+      <c r="G180">
+        <v>0.76</v>
+      </c>
+      <c r="H180">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B181" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C181" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181">
+        <v>0.87</v>
+      </c>
+      <c r="E181">
+        <v>0.47</v>
+      </c>
+      <c r="F181">
+        <v>1.33</v>
+      </c>
+      <c r="G181">
+        <v>0.61</v>
+      </c>
+      <c r="H181">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B182" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C182" t="s">
+        <v>32</v>
+      </c>
+      <c r="D182">
+        <v>0.86</v>
+      </c>
+      <c r="E182">
+        <v>0.63</v>
+      </c>
+      <c r="F182">
+        <v>1.49</v>
+      </c>
+      <c r="G182">
+        <v>0.86</v>
+      </c>
+      <c r="H182">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B183" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C183" t="s">
+        <v>33</v>
+      </c>
+      <c r="D183">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E183">
+        <v>0.47</v>
+      </c>
+      <c r="F183">
+        <v>1.59</v>
+      </c>
+      <c r="G183">
+        <v>0.74</v>
+      </c>
+      <c r="H183">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A184" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B184" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C184" t="s">
+        <v>42</v>
+      </c>
+      <c r="D184">
+        <v>1.55</v>
+      </c>
+      <c r="E184">
+        <v>0.54</v>
+      </c>
+      <c r="F184">
+        <v>2.09</v>
+      </c>
+      <c r="G184">
+        <v>0.64</v>
+      </c>
+      <c r="H184">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C185" t="s">
+        <v>186</v>
+      </c>
+      <c r="D185">
+        <v>0.97</v>
+      </c>
+      <c r="E185">
+        <v>0.3</v>
+      </c>
+      <c r="F185">
+        <v>1.26</v>
+      </c>
+      <c r="G185">
+        <v>0.46</v>
+      </c>
+      <c r="H185">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A186" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B186" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C186" t="s">
+        <v>187</v>
+      </c>
+      <c r="D186">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E186">
+        <v>0.48</v>
+      </c>
+      <c r="F186">
+        <v>1.58</v>
+      </c>
+      <c r="G186">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H186">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A187" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C187" t="s">
+        <v>188</v>
+      </c>
+      <c r="D187">
+        <v>1.18</v>
+      </c>
+      <c r="E187">
+        <v>0.74</v>
+      </c>
+      <c r="F187">
+        <v>1.92</v>
+      </c>
+      <c r="G187">
+        <v>1.18</v>
+      </c>
+      <c r="H187">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A188" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B188" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C188" t="s">
+        <v>36</v>
+      </c>
+      <c r="D188">
+        <v>2.17</v>
+      </c>
+      <c r="E188">
+        <v>1.37</v>
+      </c>
+      <c r="F188">
+        <v>3.54</v>
+      </c>
+      <c r="G188">
+        <v>1.72</v>
+      </c>
+      <c r="H188">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C189" t="s">
+        <v>37</v>
+      </c>
+      <c r="D189">
+        <v>1.37</v>
+      </c>
+      <c r="E189">
+        <v>0.75</v>
+      </c>
+      <c r="F189">
+        <v>2.11</v>
+      </c>
+      <c r="G189">
+        <v>1.06</v>
+      </c>
+      <c r="H189">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C190" t="s">
+        <v>38</v>
+      </c>
+      <c r="D190">
+        <v>0.91</v>
+      </c>
+      <c r="E190">
+        <v>0.76</v>
+      </c>
+      <c r="F190">
+        <v>1.67</v>
+      </c>
+      <c r="G190">
+        <v>0.91</v>
+      </c>
+      <c r="H190">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A191" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C191" t="s">
+        <v>189</v>
+      </c>
+      <c r="D191">
+        <v>1.61</v>
+      </c>
+      <c r="E191">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F191">
+        <v>2.77</v>
+      </c>
+      <c r="G191">
+        <v>1.36</v>
+      </c>
+      <c r="H191">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A192" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E192">
+        <v>0.71</v>
+      </c>
+      <c r="F192">
+        <v>1.87</v>
+      </c>
+      <c r="G192">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H192">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>204</v>
+      </c>
+      <c r="B193">
+        <v>2021</v>
+      </c>
+      <c r="C193" t="s">
+        <v>191</v>
+      </c>
+      <c r="D193" s="10">
+        <v>1.43</v>
+      </c>
+      <c r="E193" s="10">
+        <v>1.06</v>
+      </c>
+      <c r="F193" s="10">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G193" s="10">
+        <v>1.31</v>
+      </c>
+      <c r="H193" s="10">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A194" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B194" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C194" t="s">
+        <v>105</v>
+      </c>
+      <c r="D194" s="10">
+        <v>1.45</v>
+      </c>
+      <c r="E194" s="10">
+        <v>1.21</v>
+      </c>
+      <c r="F194" s="10">
+        <v>2.66</v>
+      </c>
+      <c r="G194" s="10">
+        <v>1.45</v>
+      </c>
+      <c r="H194" s="10">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A195" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B195" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D195" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="E195" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="F195" s="10">
+        <v>1.85</v>
+      </c>
+      <c r="G195" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="H195" s="10">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A196" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B196" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C196" t="s">
+        <v>127</v>
+      </c>
+      <c r="D196" s="10">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E196" s="10">
+        <v>1.48</v>
+      </c>
+      <c r="F196" s="10">
+        <v>3.93</v>
+      </c>
+      <c r="G196" s="10">
+        <v>1.78</v>
+      </c>
+      <c r="H196" s="10">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A197" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B197" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C197" t="s">
+        <v>192</v>
+      </c>
+      <c r="D197" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="E197" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="F197" s="10">
+        <v>1.45</v>
+      </c>
+      <c r="G197" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="H197" s="10">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A198" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B198" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C198" t="s">
+        <v>89</v>
+      </c>
+      <c r="D198" s="10">
+        <v>1.97</v>
+      </c>
+      <c r="E198" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="F198" s="10">
+        <v>3.22</v>
+      </c>
+      <c r="G198" s="10">
+        <v>1.74</v>
+      </c>
+      <c r="H198" s="10">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A199" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C199" t="s">
+        <v>48</v>
+      </c>
+      <c r="D199" s="10">
+        <v>1.74</v>
+      </c>
+      <c r="E199" s="10">
+        <v>1.22</v>
+      </c>
+      <c r="F199" s="10">
+        <v>2.97</v>
+      </c>
+      <c r="G199" s="10">
+        <v>1.39</v>
+      </c>
+      <c r="H199" s="10">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A200" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C200" t="s">
+        <v>193</v>
+      </c>
+      <c r="D200" s="10">
+        <v>1.31</v>
+      </c>
+      <c r="E200" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="F200" s="10">
+        <v>2.04</v>
+      </c>
+      <c r="G200" s="10">
+        <v>1.05</v>
+      </c>
+      <c r="H200" s="10">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A201" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C201" t="s">
+        <v>90</v>
+      </c>
+      <c r="D201" s="10">
+        <v>1.55</v>
+      </c>
+      <c r="E201" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F201" s="10">
+        <v>2.65</v>
+      </c>
+      <c r="G201" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="H201" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A202" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C202" t="s">
+        <v>194</v>
+      </c>
+      <c r="D202" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="E202" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="F202" s="10">
+        <v>1.46</v>
+      </c>
+      <c r="G202" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="H202" s="10">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A203" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C203" t="s">
+        <v>203</v>
+      </c>
+      <c r="D203" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="E203" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="F203" s="10">
+        <v>1.28</v>
+      </c>
+      <c r="G203" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="H203" s="10">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A204" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C204" t="s">
+        <v>113</v>
+      </c>
+      <c r="D204" s="10">
+        <v>1.42</v>
+      </c>
+      <c r="E204" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="F204" s="10">
+        <v>2.21</v>
+      </c>
+      <c r="G204" s="10">
+        <v>1.42</v>
+      </c>
+      <c r="H204" s="10">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A205" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C205" t="s">
+        <v>114</v>
+      </c>
+      <c r="D205" s="10">
+        <v>1.78</v>
+      </c>
+      <c r="E205" s="10">
+        <v>1.22</v>
+      </c>
+      <c r="F205" s="10">
+        <v>3</v>
+      </c>
+      <c r="G205" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="H205" s="10">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A206" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B206" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C206" t="s">
+        <v>195</v>
+      </c>
+      <c r="D206" s="10">
+        <v>1.22</v>
+      </c>
+      <c r="E206" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="F206" s="10">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G206" s="10">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H206" s="10">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A207" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B207" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C207" t="s">
+        <v>115</v>
+      </c>
+      <c r="D207" s="10">
+        <v>1.53</v>
+      </c>
+      <c r="E207" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="F207" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G207" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="H207" s="10">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A208" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B208" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C208" t="s">
+        <v>54</v>
+      </c>
+      <c r="D208" s="10">
+        <v>1.62</v>
+      </c>
+      <c r="E208" s="10">
+        <v>1.19</v>
+      </c>
+      <c r="F208" s="10">
+        <v>2.81</v>
+      </c>
+      <c r="G208" s="10">
+        <v>1.54</v>
+      </c>
+      <c r="H208" s="10">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A209" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B209" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C209" t="s">
+        <v>196</v>
+      </c>
+      <c r="D209" s="10">
+        <v>0.81</v>
+      </c>
+      <c r="E209" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F209" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="G209" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H209" s="10">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A210" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B210" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C210" t="s">
+        <v>96</v>
+      </c>
+      <c r="D210" s="10">
+        <v>1.24</v>
+      </c>
+      <c r="E210" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="F210" s="10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G210" s="10">
+        <v>1.05</v>
+      </c>
+      <c r="H210" s="10">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A211" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B211" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C211" t="s">
+        <v>55</v>
+      </c>
+      <c r="D211" s="10">
+        <v>1.67</v>
+      </c>
+      <c r="E211" s="10">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F211" s="10">
+        <v>2.82</v>
+      </c>
+      <c r="G211" s="10">
+        <v>1.57</v>
+      </c>
+      <c r="H211" s="10">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A212" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B212" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C212" t="s">
+        <v>56</v>
+      </c>
+      <c r="D212" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="E212" s="10">
+        <v>1.06</v>
+      </c>
+      <c r="F212" s="10">
+        <v>2.96</v>
+      </c>
+      <c r="G212" s="10">
+        <v>1.39</v>
+      </c>
+      <c r="H212" s="10">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A213" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B213" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C213" t="s">
+        <v>73</v>
+      </c>
+      <c r="D213" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="E213" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F213" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="G213" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="H213" s="10">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A214" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B214" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C214" t="s">
+        <v>197</v>
+      </c>
+      <c r="D214" s="10">
+        <v>1.07</v>
+      </c>
+      <c r="E214" s="10">
+        <v>0.69</v>
+      </c>
+      <c r="F214" s="10">
+        <v>1.76</v>
+      </c>
+      <c r="G214" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="H214" s="10">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A215" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B215" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C215" t="s">
+        <v>198</v>
+      </c>
+      <c r="D215" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="E215" s="10">
+        <v>0.49</v>
+      </c>
+      <c r="F215" s="10">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G215" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="H215" s="10">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A216" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B216" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C216" t="s">
+        <v>79</v>
+      </c>
+      <c r="D216" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="E216" s="10">
+        <v>1.17</v>
+      </c>
+      <c r="F216" s="10">
+        <v>2.92</v>
+      </c>
+      <c r="G216" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="H216" s="10">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A217" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B217" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C217" t="s">
+        <v>199</v>
+      </c>
+      <c r="D217" s="10">
+        <v>1.06</v>
+      </c>
+      <c r="E217" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="F217" s="10">
+        <v>1.57</v>
+      </c>
+      <c r="G217" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="H217" s="10">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A218" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B218" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C218" t="s">
+        <v>98</v>
+      </c>
+      <c r="D218" s="10">
+        <v>1.27</v>
+      </c>
+      <c r="E218" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="F218" s="10">
+        <v>2.23</v>
+      </c>
+      <c r="G218" s="10">
+        <v>1.17</v>
+      </c>
+      <c r="H218" s="10">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A219" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B219" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C219" t="s">
+        <v>200</v>
+      </c>
+      <c r="D219" s="10">
+        <v>1.89</v>
+      </c>
+      <c r="E219" s="10">
+        <v>1.33</v>
+      </c>
+      <c r="F219" s="10">
+        <v>3.22</v>
+      </c>
+      <c r="G219" s="10">
+        <v>1.89</v>
+      </c>
+      <c r="H219" s="10">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A220" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B220" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C220" t="s">
+        <v>137</v>
+      </c>
+      <c r="D220" s="10">
+        <v>1.47</v>
+      </c>
+      <c r="E220" s="10">
+        <v>1.02</v>
+      </c>
+      <c r="F220" s="10">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G220" s="10">
+        <v>1.34</v>
+      </c>
+      <c r="H220" s="10">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A221" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B221" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C221" t="s">
+        <v>81</v>
+      </c>
+      <c r="D221" s="10">
+        <v>1.23</v>
+      </c>
+      <c r="E221" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="F221" s="10">
+        <v>1.95</v>
+      </c>
+      <c r="G221" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="H221" s="10">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A222" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B222" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C222" t="s">
+        <v>139</v>
+      </c>
+      <c r="D222" s="10">
+        <v>1.38</v>
+      </c>
+      <c r="E222" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="F222" s="10">
+        <v>2.25</v>
+      </c>
+      <c r="G222" s="10">
+        <v>1.29</v>
+      </c>
+      <c r="H222" s="10">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A223" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B223" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C223" t="s">
+        <v>201</v>
+      </c>
+      <c r="D223" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="E223" s="10">
+        <v>0.49</v>
+      </c>
+      <c r="F223" s="10">
+        <v>1.19</v>
+      </c>
+      <c r="G223" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="H223" s="10">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A224" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B224" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C224" t="s">
+        <v>202</v>
+      </c>
+      <c r="D224" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="E224" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="F224" s="10">
+        <v>1.39</v>
+      </c>
+      <c r="G224" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="H224" s="10">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>240</v>
+      </c>
+      <c r="B225">
+        <v>2021</v>
+      </c>
+      <c r="C225" t="s">
+        <v>205</v>
+      </c>
+      <c r="D225" s="12">
+        <v>1.17</v>
+      </c>
+      <c r="E225" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="F225" s="12">
+        <v>1.71</v>
+      </c>
+      <c r="G225" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="H225" s="12">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A226" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B226" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C226" t="s">
+        <v>206</v>
+      </c>
+      <c r="D226" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E226" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="F226" s="12">
+        <v>1.92</v>
+      </c>
+      <c r="G226" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H226" s="12">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A227" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B227" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C227" t="s">
+        <v>191</v>
+      </c>
+      <c r="D227" s="12">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E227" s="12">
+        <v>1.46</v>
+      </c>
+      <c r="F227" s="12">
+        <v>3.96</v>
+      </c>
+      <c r="G227" s="12">
+        <v>2.14</v>
+      </c>
+      <c r="H227" s="12">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A228" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B228" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C228" t="s">
+        <v>207</v>
+      </c>
+      <c r="D228" s="12">
+        <v>1.56</v>
+      </c>
+      <c r="E228" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F228" s="12">
+        <v>2.68</v>
+      </c>
+      <c r="G228" s="12">
+        <v>1.47</v>
+      </c>
+      <c r="H228" s="12">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A229" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B229" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C229" t="s">
+        <v>44</v>
+      </c>
+      <c r="D229" s="12">
+        <v>1.83</v>
+      </c>
+      <c r="E229" s="12">
+        <v>1.33</v>
+      </c>
+      <c r="F229" s="12">
+        <v>3.16</v>
+      </c>
+      <c r="G229" s="12">
+        <v>1.72</v>
+      </c>
+      <c r="H229" s="12">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A230" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B230" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C230" t="s">
+        <v>208</v>
+      </c>
+      <c r="D230" s="12">
+        <v>1.36</v>
+      </c>
+      <c r="E230" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="F230" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G230" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H230" s="12">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A231" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B231" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C231" t="s">
+        <v>209</v>
+      </c>
+      <c r="D231" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="E231" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="F231" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="G231" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="H231" s="12">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A232" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B232" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C232" t="s">
+        <v>210</v>
+      </c>
+      <c r="D232" s="12">
+        <v>1.99</v>
+      </c>
+      <c r="E232" s="12">
+        <v>1.01</v>
+      </c>
+      <c r="F232" s="12">
+        <v>3</v>
+      </c>
+      <c r="G232" s="12">
+        <v>1.51</v>
+      </c>
+      <c r="H232" s="12">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A233" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B233" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C233" t="s">
+        <v>211</v>
+      </c>
+      <c r="D233" s="12">
+        <v>1.36</v>
+      </c>
+      <c r="E233" s="12">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F233" s="12">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G233" s="12">
+        <v>1.36</v>
+      </c>
+      <c r="H233" s="12">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A234" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B234" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C234" t="s">
+        <v>212</v>
+      </c>
+      <c r="D234" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E234" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="F234" s="12">
+        <v>1.92</v>
+      </c>
+      <c r="G234" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="H234" s="12">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A235" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B235" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C235" t="s">
+        <v>213</v>
+      </c>
+      <c r="D235" s="12">
+        <v>0.91</v>
+      </c>
+      <c r="E235" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="F235" s="12">
+        <v>1.43</v>
+      </c>
+      <c r="G235" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="H235" s="12">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A236" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B236" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C236" t="s">
+        <v>193</v>
+      </c>
+      <c r="D236" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="E236" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="F236" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G236" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="H236" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A237" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C237" t="s">
+        <v>214</v>
+      </c>
+      <c r="D237" s="12">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E237" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="F237" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="G237" s="12">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H237" s="12">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A238" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B238" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C238" t="s">
+        <v>215</v>
+      </c>
+      <c r="D238" s="12">
+        <v>1.06</v>
+      </c>
+      <c r="E238" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="F238" s="12">
+        <v>1.85</v>
+      </c>
+      <c r="G238" s="12">
+        <v>1.06</v>
+      </c>
+      <c r="H238" s="12">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A239" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C239" t="s">
+        <v>216</v>
+      </c>
+      <c r="D239" s="12">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E239" s="12">
+        <v>0.91</v>
+      </c>
+      <c r="F239" s="12">
+        <v>2</v>
+      </c>
+      <c r="G239" s="12">
+        <v>1.05</v>
+      </c>
+      <c r="H239" s="12">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A240" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C240" t="s">
+        <v>217</v>
+      </c>
+      <c r="D240" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="E240" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="F240" s="12">
+        <v>1.34</v>
+      </c>
+      <c r="G240" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="H240" s="12">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A241" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C241" t="s">
+        <v>194</v>
+      </c>
+      <c r="D241" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="E241" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F241" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="G241" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="H241" s="12">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A242" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B242" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C242" t="s">
+        <v>218</v>
+      </c>
+      <c r="D242" s="12">
+        <v>1.29</v>
+      </c>
+      <c r="E242" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="F242" s="12">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G242" s="12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H242" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A243" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B243" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C243" t="s">
+        <v>219</v>
+      </c>
+      <c r="D243" s="12">
+        <v>1.48</v>
+      </c>
+      <c r="E243" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="F243" s="12">
+        <v>2.42</v>
+      </c>
+      <c r="G243" s="12">
+        <v>1.35</v>
+      </c>
+      <c r="H243" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A244" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B244" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C244" t="s">
+        <v>133</v>
+      </c>
+      <c r="D244" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="E244" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="F244" s="12">
+        <v>1.68</v>
+      </c>
+      <c r="G244" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="H244" s="12">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A245" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B245" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C245" t="s">
+        <v>94</v>
+      </c>
+      <c r="D245" s="12">
+        <v>2.46</v>
+      </c>
+      <c r="E245" s="12">
+        <v>1.62</v>
+      </c>
+      <c r="F245" s="12">
+        <v>4.08</v>
+      </c>
+      <c r="G245" s="12">
+        <v>2.19</v>
+      </c>
+      <c r="H245" s="12">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A246" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B246" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C246" t="s">
+        <v>195</v>
+      </c>
+      <c r="D246" s="12">
+        <v>1.35</v>
+      </c>
+      <c r="E246" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="F246" s="12">
+        <v>2</v>
+      </c>
+      <c r="G246" s="12">
+        <v>1.35</v>
+      </c>
+      <c r="H246" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A247" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B247" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C247" t="s">
+        <v>220</v>
+      </c>
+      <c r="D247" s="12">
+        <v>1.27</v>
+      </c>
+      <c r="E247" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="F247" s="12">
+        <v>2.04</v>
+      </c>
+      <c r="G247" s="12">
+        <v>1.03</v>
+      </c>
+      <c r="H247" s="12">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A248" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B248" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C248" t="s">
+        <v>237</v>
+      </c>
+      <c r="D248" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="E248" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="F248" s="12">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G248" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="H248" s="12">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A249" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B249" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C249" t="s">
+        <v>53</v>
+      </c>
+      <c r="D249" s="12">
+        <v>1.64</v>
+      </c>
+      <c r="E249" s="12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F249" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="G249" s="12">
+        <v>1.55</v>
+      </c>
+      <c r="H249" s="12">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A250" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B250" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C250" t="s">
+        <v>95</v>
+      </c>
+      <c r="D250" s="12">
+        <v>1.99</v>
+      </c>
+      <c r="E250" s="12">
+        <v>1.38</v>
+      </c>
+      <c r="F250" s="12">
+        <v>3.37</v>
+      </c>
+      <c r="G250" s="12">
+        <v>1.99</v>
+      </c>
+      <c r="H250" s="12">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A251" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B251" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C251" t="s">
+        <v>70</v>
+      </c>
+      <c r="D251" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="E251" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="F251" s="12">
+        <v>2.56</v>
+      </c>
+      <c r="G251" s="12">
+        <v>1.32</v>
+      </c>
+      <c r="H251" s="12">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A252" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B252" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C252" t="s">
+        <v>221</v>
+      </c>
+      <c r="D252" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E252" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="F252" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="G252" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="H252" s="12">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A253" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B253" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C253" t="s">
+        <v>222</v>
+      </c>
+      <c r="D253" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="E253" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="F253" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="G253" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="H253" s="12">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A254" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B254" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C254" t="s">
+        <v>56</v>
+      </c>
+      <c r="D254" s="12">
+        <v>1.79</v>
+      </c>
+      <c r="E254" s="12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F254" s="12">
+        <v>2.91</v>
+      </c>
+      <c r="G254" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="H254" s="12">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A255" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B255" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C255" t="s">
+        <v>116</v>
+      </c>
+      <c r="D255" s="12">
+        <v>1.31</v>
+      </c>
+      <c r="E255" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="F255" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="G255" s="12">
+        <v>1.08</v>
+      </c>
+      <c r="H255" s="12">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A256" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B256" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C256" t="s">
+        <v>223</v>
+      </c>
+      <c r="D256" s="12">
+        <v>1.61</v>
+      </c>
+      <c r="E256" s="12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F256" s="12">
+        <v>2.77</v>
+      </c>
+      <c r="G256" s="12">
+        <v>1.46</v>
+      </c>
+      <c r="H256" s="12">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A257" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B257" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C257" t="s">
+        <v>117</v>
+      </c>
+      <c r="D257" s="12">
+        <v>1.59</v>
+      </c>
+      <c r="E257" s="12">
+        <v>1.37</v>
+      </c>
+      <c r="F257" s="12">
+        <v>2.95</v>
+      </c>
+      <c r="G257" s="12">
+        <v>1.59</v>
+      </c>
+      <c r="H257" s="12">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A258" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B258" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C258" t="s">
+        <v>78</v>
+      </c>
+      <c r="D258" s="12">
+        <v>1.04</v>
+      </c>
+      <c r="E258" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="F258" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="G258" s="12">
+        <v>1.04</v>
+      </c>
+      <c r="H258" s="12">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A259" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B259" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C259" t="s">
+        <v>198</v>
+      </c>
+      <c r="D259" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="E259" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="F259" s="12">
+        <v>1.37</v>
+      </c>
+      <c r="G259" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="H259" s="12">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A260" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B260" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C260" t="s">
+        <v>224</v>
+      </c>
+      <c r="D260" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E260" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="F260" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="G260" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H260" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A261" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B261" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C261" t="s">
+        <v>225</v>
+      </c>
+      <c r="D261" s="12">
+        <v>1.55</v>
+      </c>
+      <c r="E261" s="12">
+        <v>1.17</v>
+      </c>
+      <c r="F261" s="12">
+        <v>2.72</v>
+      </c>
+      <c r="G261" s="12">
+        <v>1.36</v>
+      </c>
+      <c r="H261" s="12">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A262" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B262" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C262" t="s">
+        <v>238</v>
+      </c>
+      <c r="D262" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="E262" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="F262" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="G262" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="H262" s="12">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A263" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B263" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C263" t="s">
+        <v>226</v>
+      </c>
+      <c r="D263" s="12">
+        <v>1.78</v>
+      </c>
+      <c r="E263" s="12">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F263" s="12">
+        <v>2.87</v>
+      </c>
+      <c r="G263" s="12">
+        <v>1.35</v>
+      </c>
+      <c r="H263" s="12">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A264" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B264" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C264" t="s">
+        <v>227</v>
+      </c>
+      <c r="D264" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="E264" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="F264" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="G264" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="H264" s="12">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A265" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B265" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C265" t="s">
+        <v>200</v>
+      </c>
+      <c r="D265" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="E265" s="12">
+        <v>1.22</v>
+      </c>
+      <c r="F265" s="12">
+        <v>2.62</v>
+      </c>
+      <c r="G265" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="H265" s="12">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A266" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B266" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C266" t="s">
+        <v>138</v>
+      </c>
+      <c r="D266" s="12">
+        <v>1.81</v>
+      </c>
+      <c r="E266" s="12">
+        <v>1.39</v>
+      </c>
+      <c r="F266" s="12">
+        <v>3.2</v>
+      </c>
+      <c r="G266" s="12">
+        <v>1.71</v>
+      </c>
+      <c r="H266" s="12">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A267" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B267" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C267" t="s">
+        <v>228</v>
+      </c>
+      <c r="D267" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="E267" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="F267" s="12">
+        <v>1.84</v>
+      </c>
+      <c r="G267" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="H267" s="12">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A268" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B268" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C268" t="s">
+        <v>229</v>
+      </c>
+      <c r="D268" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="E268" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="F268" s="12">
+        <v>1.65</v>
+      </c>
+      <c r="G268" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="H268" s="12">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A269" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B269" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C269" t="s">
+        <v>119</v>
+      </c>
+      <c r="D269" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="E269" s="12">
+        <v>1.32</v>
+      </c>
+      <c r="F269" s="12">
+        <v>3.22</v>
+      </c>
+      <c r="G269" s="12">
+        <v>1.76</v>
+      </c>
+      <c r="H269" s="12">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A270" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B270" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C270" t="s">
+        <v>201</v>
+      </c>
+      <c r="D270" s="12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E270" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="F270" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G270" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="H270" s="12">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A271" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B271" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C271" t="s">
+        <v>230</v>
+      </c>
+      <c r="D271" s="12">
+        <v>1.02</v>
+      </c>
+      <c r="E271" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="F271" s="12">
+        <v>1.68</v>
+      </c>
+      <c r="G271" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="H271" s="12">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A272" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B272" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C272" t="s">
+        <v>231</v>
+      </c>
+      <c r="D272" s="12">
+        <v>1</v>
+      </c>
+      <c r="E272" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="F272" s="12">
+        <v>1.63</v>
+      </c>
+      <c r="G272" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="H272" s="12">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A273" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B273" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C273" t="s">
+        <v>232</v>
+      </c>
+      <c r="D273" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E273" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="F273" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="G273" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="H273" s="12">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A274" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B274" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C274" t="s">
+        <v>233</v>
+      </c>
+      <c r="D274" s="12">
+        <v>1.06</v>
+      </c>
+      <c r="E274" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="F274" s="12">
+        <v>1.92</v>
+      </c>
+      <c r="G274" s="12">
+        <v>1.06</v>
+      </c>
+      <c r="H274" s="12">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A275" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B275" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C275" t="s">
+        <v>239</v>
+      </c>
+      <c r="D275" s="12">
+        <v>1.03</v>
+      </c>
+      <c r="E275" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F275" s="12">
+        <v>1.73</v>
+      </c>
+      <c r="G275" s="12">
+        <v>1.03</v>
+      </c>
+      <c r="H275" s="12">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A276" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B276" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C276" t="s">
+        <v>60</v>
+      </c>
+      <c r="D276" s="12">
+        <v>2.34</v>
+      </c>
+      <c r="E276" s="12">
+        <v>1.79</v>
+      </c>
+      <c r="F276" s="12">
+        <v>4.13</v>
+      </c>
+      <c r="G276" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H276" s="12">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A277" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B277" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C277" t="s">
+        <v>142</v>
+      </c>
+      <c r="D277" s="12">
+        <v>1.74</v>
+      </c>
+      <c r="E277" s="12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F277" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="G277" s="12">
+        <v>1.41</v>
+      </c>
+      <c r="H277" s="12">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A278" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B278" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C278" t="s">
+        <v>234</v>
+      </c>
+      <c r="D278" s="12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E278" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="F278" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="G278" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="H278" s="12">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A279" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B279" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C279" t="s">
+        <v>235</v>
+      </c>
+      <c r="D279" s="12">
+        <v>1.42</v>
+      </c>
+      <c r="E279" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="F279" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G279" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="H279" s="12">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A280" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B280" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C280" t="s">
+        <v>236</v>
+      </c>
+      <c r="D280" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E280" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="F280" s="12">
+        <v>1.82</v>
+      </c>
+      <c r="G280" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="H280" s="12">
+        <v>1.7</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{03E50C12-0386-49E4-9349-CA5AF6787F68}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
